--- a/LF/PreTAS/Benin/bj_lf_pretas_2_participant_202009.xlsx
+++ b/LF/PreTAS/Benin/bj_lf_pretas_2_participant_202009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C51C89-82ED-4A15-9F12-415435CC9ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053EC54D-AFE4-44E6-BEA3-EB2DBD531EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
   <si>
     <t>form_title</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Scanner le code-barres maintenant</t>
   </si>
   <si>
-    <t>Veuiller enregistrer le code d'identification unique suivant pour le répondant sur une liste séparée et sur chaque test de diagnostic administré, y compris les tests OV16 RDT et Dry Blood Spot</t>
-  </si>
-  <si>
     <t>Vous vener de saisir une valeur qui mettra fin à l'enquête</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
     <t>Le code doit être un nombre à deux chiffres entre 9 et 100</t>
   </si>
   <si>
-    <t>bj_lf_pretas_2_participant_202009</t>
-  </si>
-  <si>
     <t>p_district</t>
   </si>
   <si>
@@ -353,7 +347,16 @@
     <t>French</t>
   </si>
   <si>
-    <t>(Septembre 2020) 2. Benin -  Pre TAS FL Formulaire Participants</t>
+    <t>(Septembre 2020) 2. Benin -  Pre TAS FL Formulaire Participants V2</t>
+  </si>
+  <si>
+    <t>bj_lf_pretas_2_participant_202009_v2</t>
+  </si>
+  <si>
+    <t>Veuiller enregistrer le code d'identification unique suivant pour le répondant sur une liste séparée et sur chaque test de diagnostic administré, y compris les tests FTS</t>
+  </si>
+  <si>
+    <t>read_only</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -464,13 +467,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -510,6 +528,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -794,13 +815,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -823,7 +844,7 @@
     <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -872,8 +893,11 @@
       <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="Q1" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -894,35 +918,35 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -931,13 +955,13 @@
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -949,10 +973,10 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -961,25 +985,25 @@
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -989,13 +1013,13 @@
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1017,15 +1041,15 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>45</v>
@@ -1042,17 +1066,17 @@
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
       <c r="K7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1069,26 +1093,26 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1105,31 +1129,31 @@
       <c r="F9" s="3"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="K9" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>51</v>
@@ -1140,18 +1164,18 @@
       </c>
       <c r="F10" s="11"/>
       <c r="K10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>52</v>
@@ -1162,37 +1186,40 @@
       </c>
       <c r="F11" s="11"/>
       <c r="K11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="F12" s="11"/>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>53</v>
@@ -1202,15 +1229,15 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="11"/>
       <c r="K13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1222,11 +1249,11 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1238,7 +1265,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1316,58 +1343,58 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
         <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1382,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1410,16 +1437,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C2">
-        <v>20200904</v>
+        <v>20200908</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Benin/bj_lf_pretas_2_participant_202009.xlsx
+++ b/LF/PreTAS/Benin/bj_lf_pretas_2_participant_202009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053EC54D-AFE4-44E6-BEA3-EB2DBD531EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF417B7-352E-4FC3-9701-5BBC0AADF887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
   <si>
     <t>form_title</t>
   </si>
@@ -185,12 +185,6 @@
     <t>How many years has the respondent lived in the area?</t>
   </si>
   <si>
-    <t>How will the individual's unique ID be generated?</t>
-  </si>
-  <si>
-    <t>Scan barcode now</t>
-  </si>
-  <si>
     <t>p_ending_survey_note</t>
   </si>
   <si>
@@ -215,12 +209,6 @@
     <t>Depuis combien d'années l'intimé habite-t-il dans la région?</t>
   </si>
   <si>
-    <t>Comment l'ID unique de l'individu sera-t-il généré?</t>
-  </si>
-  <si>
-    <t>Scanner le code-barres maintenant</t>
-  </si>
-  <si>
     <t>Vous vener de saisir une valeur qui mettra fin à l'enquête</t>
   </si>
   <si>
@@ -260,9 +248,6 @@
     <t>La valeur ne doit pas être supérieure à l'âge</t>
   </si>
   <si>
-    <t>select_one id_list</t>
-  </si>
-  <si>
     <t>id_list</t>
   </si>
   <si>
@@ -275,9 +260,6 @@
     <t>Génération automatique</t>
   </si>
   <si>
-    <t>barcode</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -329,34 +311,43 @@
     <t>Sélectionner le code de la grappe</t>
   </si>
   <si>
-    <t>p_id_Method</t>
-  </si>
-  <si>
-    <t>${p_id_Method} = 'Scanner' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>${p_id_Method} = 'ID_generation' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>p_Barcode_id</t>
-  </si>
-  <si>
-    <t>p_Generate_id</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
-    <t>(Septembre 2020) 2. Benin -  Pre TAS FL Formulaire Participants V2</t>
-  </si>
-  <si>
-    <t>bj_lf_pretas_2_participant_202009_v2</t>
-  </si>
-  <si>
     <t>Veuiller enregistrer le code d'identification unique suivant pour le répondant sur une liste séparée et sur chaque test de diagnostic administré, y compris les tests FTS</t>
   </si>
   <si>
     <t>read_only</t>
+  </si>
+  <si>
+    <t>bj_lf_pretas_2_participant_202009_v3</t>
+  </si>
+  <si>
+    <t>(Septembre 2020) 2. Benin -  Pre TAS FL Formulaire Participants V3</t>
+  </si>
+  <si>
+    <t>p_id_sequence</t>
+  </si>
+  <si>
+    <t>Enter the sequence ID</t>
+  </si>
+  <si>
+    <t>Entrer le numéro du participant</t>
+  </si>
+  <si>
+    <t>. &gt; 0</t>
+  </si>
+  <si>
+    <t>The number must be greater than 0</t>
+  </si>
+  <si>
+    <t>Le chiffre doit être supérieur à zéro</t>
+  </si>
+  <si>
+    <t>p_code_id</t>
+  </si>
+  <si>
+    <t>concat(${p_cluster_id}, '-', ${p_id_sequence})</t>
   </si>
 </sst>
 </file>
@@ -815,13 +806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -894,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -918,18 +909,18 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -939,14 +930,14 @@
         <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -955,7 +946,7 @@
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -973,10 +964,10 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -985,7 +976,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -996,14 +987,14 @@
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -1013,7 +1004,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1031,7 +1022,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1041,7 +1032,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1049,7 +1040,7 @@
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>45</v>
@@ -1059,18 +1050,18 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
       <c r="K7" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1088,25 +1079,25 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1124,25 +1115,25 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1150,76 +1141,86 @@
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="F10" s="11"/>
+      <c r="H10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="F11" s="11"/>
       <c r="K11" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F12" s="11"/>
       <c r="K12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>53</v>
@@ -1229,47 +1230,27 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="K13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>56</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1343,58 +1324,58 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1391,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1437,16 +1418,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C2">
-        <v>20200908</v>
+        <v>20200917</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Benin/bj_lf_pretas_2_participant_202009.xlsx
+++ b/LF/PreTAS/Benin/bj_lf_pretas_2_participant_202009.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF417B7-352E-4FC3-9701-5BBC0AADF887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462F4F2E-F14F-4252-9C74-5F5F8C97E26F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -323,9 +323,6 @@
     <t>bj_lf_pretas_2_participant_202009_v3</t>
   </si>
   <si>
-    <t>(Septembre 2020) 2. Benin -  Pre TAS FL Formulaire Participants V3</t>
-  </si>
-  <si>
     <t>p_id_sequence</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>concat(${p_cluster_id}, '-', ${p_id_sequence})</t>
+  </si>
+  <si>
+    <t>2. Benin -  Pre TAS FL Formulaire Participants</t>
   </si>
 </sst>
 </file>
@@ -808,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1144,24 +1144,24 @@
         <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="11"/>
       <c r="H10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>78</v>
@@ -1175,7 +1175,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>83</v>
@@ -1189,7 +1189,7 @@
         <v>78</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>81</v>
@@ -1390,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
       </c>
       <c r="C2">
-        <v>20200917</v>
+        <v>20200925</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
